--- a/howell_8.xlsx
+++ b/howell_8.xlsx
@@ -520,7 +520,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Jul 20, 2025.</t>
+          <t>For public domain. No rights reserved. Generated on Sep 03, 2025.</t>
         </is>
       </c>
     </row>
@@ -695,12 +695,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PlaceHolder72</t>
+          <t>PH50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PlaceHolder13</t>
+          <t>PH79</t>
         </is>
       </c>
       <c r="D2" s="4">
@@ -714,12 +714,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PlaceHolder56</t>
+          <t>PH75</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PlaceHolder12</t>
+          <t>PH14</t>
         </is>
       </c>
       <c r="D3" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PlaceHolder76</t>
+          <t>PH45</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PlaceHolder49</t>
+          <t>PH79</t>
         </is>
       </c>
       <c r="D4" s="4">
@@ -752,12 +752,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PlaceHolder24</t>
+          <t>PH90</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PlaceHolder61</t>
+          <t>PH54</t>
         </is>
       </c>
       <c r="D5" s="4">
@@ -771,12 +771,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PlaceHolder71</t>
+          <t>PH59</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PlaceHolder73</t>
+          <t>PH20</t>
         </is>
       </c>
       <c r="D6" s="4">
@@ -790,12 +790,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PlaceHolder50</t>
+          <t>PH79</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PlaceHolder83</t>
+          <t>PH66</t>
         </is>
       </c>
       <c r="D7" s="4">
@@ -809,12 +809,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PlaceHolder76</t>
+          <t>PH90</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PlaceHolder67</t>
+          <t>PH87</t>
         </is>
       </c>
       <c r="D8" s="4">
@@ -828,12 +828,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PlaceHolder25</t>
+          <t>PH90</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PlaceHolder63</t>
+          <t>PH18</t>
         </is>
       </c>
       <c r="D9" s="4">
